--- a/samples/1_simple/exported_file.xlsx
+++ b/samples/1_simple/exported_file.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -19,13 +19,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>Date: 05-10-2018 - Department: Sales department</t>
+    <t>Date: 06-01-2026 - Department: Sales department</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -34,37 +34,35 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,7 +75,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -115,7 +113,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -149,7 +147,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -184,7 +181,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,7 +356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -389,23 +385,14 @@
       <c r="D2" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -417,23 +404,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -445,17 +423,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
 </worksheet>
 </file>